--- a/APPLICATION_PORTAL.xlsx
+++ b/APPLICATION_PORTAL.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabandalgr\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="JOB SEEKER INFO" sheetId="1" r:id="rId1"/>
@@ -17,9 +12,9 @@
     <sheet name="THINGS TO DO" sheetId="3" r:id="rId3"/>
     <sheet name="Process" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -473,8 +468,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,7 +491,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -533,6 +528,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -546,7 +559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -556,6 +569,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,7 +632,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -651,7 +667,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -828,42 +844,42 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N81"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
-    <col min="2" max="2" width="5.625" customWidth="1"/>
-    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.75" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="9" max="9" width="9.375" customWidth="1"/>
-    <col min="12" max="12" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" customWidth="1"/>
+    <col min="12" max="12" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="1" customFormat="1">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -877,7 +893,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -891,7 +907,7 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="C5" t="s">
         <v>4</v>
       </c>
@@ -905,7 +921,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="C6" t="s">
         <v>5</v>
       </c>
@@ -919,7 +935,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="C7" t="s">
         <v>6</v>
       </c>
@@ -934,7 +950,7 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="C8" t="s">
         <v>7</v>
       </c>
@@ -949,7 +965,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
     </row>
-    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="2" customFormat="1">
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
@@ -957,7 +973,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="C11" t="s">
         <v>12</v>
       </c>
@@ -965,7 +981,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="C12" t="s">
         <v>13</v>
       </c>
@@ -976,7 +992,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="C13" t="s">
         <v>20</v>
       </c>
@@ -987,7 +1003,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -998,7 +1014,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="2" customFormat="1">
       <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
@@ -1006,27 +1022,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6">
       <c r="C17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6">
       <c r="C18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6">
       <c r="C19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6">
       <c r="C20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6">
       <c r="C21" t="s">
         <v>27</v>
       </c>
@@ -1034,7 +1050,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6">
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -1042,7 +1058,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" s="2" customFormat="1">
       <c r="B24" s="2" t="s">
         <v>31</v>
       </c>
@@ -1050,37 +1066,37 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6">
       <c r="C25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6">
       <c r="C26" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6">
       <c r="C27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6">
       <c r="C28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6">
       <c r="C29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6">
       <c r="C30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" s="3" customFormat="1">
       <c r="B32" s="3" t="s">
         <v>35</v>
       </c>
@@ -1088,12 +1104,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6">
       <c r="C33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6">
       <c r="C34" t="s">
         <v>37</v>
       </c>
@@ -1101,7 +1117,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" s="3" customFormat="1">
       <c r="B36" s="3" t="s">
         <v>39</v>
       </c>
@@ -1109,12 +1125,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6">
       <c r="C37" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6">
       <c r="C38" t="s">
         <v>27</v>
       </c>
@@ -1122,12 +1138,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6">
       <c r="C39" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" s="3" customFormat="1">
       <c r="B41" s="3" t="s">
         <v>41</v>
       </c>
@@ -1135,7 +1151,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6">
       <c r="C42" t="s">
         <v>43</v>
       </c>
@@ -1143,12 +1159,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6">
       <c r="C43" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" s="3" customFormat="1">
       <c r="B45" s="3" t="s">
         <v>46</v>
       </c>
@@ -1156,32 +1172,32 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6">
       <c r="C46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6">
       <c r="C47" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6">
       <c r="C48" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6">
       <c r="C49" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6">
       <c r="C50" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" s="3" customFormat="1">
       <c r="B52" s="3" t="s">
         <v>50</v>
       </c>
@@ -1189,12 +1205,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6">
       <c r="C53" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6">
       <c r="C54" t="s">
         <v>51</v>
       </c>
@@ -1202,12 +1218,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6">
       <c r="C55" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6" s="3" customFormat="1">
       <c r="B57" s="3" t="s">
         <v>53</v>
       </c>
@@ -1215,22 +1231,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:6">
       <c r="C58" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6">
       <c r="C59" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6">
       <c r="C60" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:6" s="3" customFormat="1">
       <c r="B62" s="3" t="s">
         <v>54</v>
       </c>
@@ -1238,32 +1254,32 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:6">
       <c r="C63" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:6">
       <c r="C64" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4">
       <c r="C65" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4">
       <c r="C66" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4">
       <c r="C67" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="69" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:4" s="3" customFormat="1">
       <c r="B69" s="3" t="s">
         <v>60</v>
       </c>
@@ -1271,27 +1287,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:4">
       <c r="C70" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:4">
       <c r="C71" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:4">
       <c r="C72" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:4">
       <c r="C73" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="75" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:4" s="3" customFormat="1">
       <c r="B75" s="3" t="s">
         <v>62</v>
       </c>
@@ -1299,7 +1315,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:4" s="3" customFormat="1">
       <c r="B77" s="3" t="s">
         <v>125</v>
       </c>
@@ -1307,17 +1323,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:4">
       <c r="C78" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:4">
       <c r="C79" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="81" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" s="3" customFormat="1">
       <c r="B81" s="3" t="s">
         <v>128</v>
       </c>
@@ -1329,35 +1345,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
-    <col min="2" max="2" width="5.625" customWidth="1"/>
-    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.75" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="9" max="9" width="9.375" customWidth="1"/>
-    <col min="12" max="12" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" customWidth="1"/>
+    <col min="12" max="12" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="1" customFormat="1">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -1371,7 +1387,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -1385,7 +1401,7 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="C5" t="s">
         <v>4</v>
       </c>
@@ -1399,7 +1415,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="C6" t="s">
         <v>5</v>
       </c>
@@ -1413,7 +1429,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="C7" t="s">
         <v>6</v>
       </c>
@@ -1428,7 +1444,7 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="C8" t="s">
         <v>7</v>
       </c>
@@ -1443,144 +1459,144 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
     </row>
-    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="2" customFormat="1">
       <c r="B10" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="C11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="C12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="C13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="C14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="C15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" s="2" customFormat="1">
       <c r="B17" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3">
       <c r="C18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3">
       <c r="C19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3">
       <c r="C20" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" s="2" customFormat="1">
       <c r="B22" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3">
       <c r="C23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="C24" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="C25" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" s="2" customFormat="1">
       <c r="B27" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" s="8" customFormat="1">
       <c r="C28" s="8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" s="8" customFormat="1">
       <c r="C29" s="8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" s="8" customFormat="1">
       <c r="C30" s="8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" s="8" customFormat="1">
       <c r="C31" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="2:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" s="8" customFormat="1">
       <c r="C32" s="8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="33" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="8" customFormat="1"/>
+    <row r="34" s="8" customFormat="1"/>
+    <row r="35" s="8" customFormat="1"/>
+    <row r="36" s="8" customFormat="1"/>
+    <row r="37" s="8" customFormat="1"/>
+    <row r="38" s="8" customFormat="1"/>
+    <row r="39" s="8" customFormat="1"/>
+    <row r="40" s="8" customFormat="1"/>
+    <row r="41" s="8" customFormat="1"/>
+    <row r="42" s="8" customFormat="1"/>
+    <row r="43" s="8" customFormat="1"/>
+    <row r="44" s="8" customFormat="1"/>
+    <row r="45" s="8" customFormat="1"/>
+    <row r="46" s="8" customFormat="1"/>
+    <row r="47" s="8" customFormat="1"/>
+    <row r="48" s="8" customFormat="1"/>
+    <row r="49" s="8" customFormat="1"/>
+    <row r="50" s="8" customFormat="1"/>
+    <row r="51" s="8" customFormat="1"/>
+    <row r="52" s="8" customFormat="1"/>
+    <row r="53" s="8" customFormat="1"/>
+    <row r="54" s="8" customFormat="1"/>
+    <row r="55" s="8" customFormat="1"/>
+    <row r="56" s="8" customFormat="1"/>
+    <row r="57" s="8" customFormat="1"/>
+    <row r="58" s="8" customFormat="1"/>
+    <row r="59" s="8" customFormat="1"/>
+    <row r="60" s="8" customFormat="1"/>
+    <row r="61" s="8" customFormat="1"/>
+    <row r="62" s="8" customFormat="1"/>
+    <row r="63" s="8" customFormat="1"/>
+    <row r="64" s="8" customFormat="1"/>
+    <row r="65" s="8" customFormat="1"/>
+    <row r="66" s="8" customFormat="1"/>
+    <row r="67" s="8" customFormat="1"/>
+    <row r="68" s="8" customFormat="1"/>
+    <row r="69" s="8" customFormat="1"/>
+    <row r="70" s="8" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1588,230 +1604,267 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="3.5" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
+      <c r="A2" s="9"/>
       <c r="B2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
+      <c r="A3" s="9"/>
       <c r="C3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
+      <c r="A4" s="11"/>
       <c r="C4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
+      <c r="A5" s="9"/>
       <c r="B5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="B6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
+      <c r="B7" s="9"/>
       <c r="C7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
+      <c r="B8" s="9"/>
       <c r="C8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
+      <c r="B9" s="9"/>
       <c r="C9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
+      <c r="B10" s="11"/>
       <c r="C10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
+      <c r="B11" s="11"/>
       <c r="C11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
+      <c r="B12" s="9"/>
       <c r="C12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
+      <c r="B13" s="9"/>
       <c r="C13" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
+      <c r="A14" s="9"/>
       <c r="B14" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
+      <c r="A15" s="9"/>
       <c r="B15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
+      <c r="A16" s="11"/>
       <c r="B16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
+      <c r="A17" s="9"/>
       <c r="B17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
+      <c r="A18" s="10"/>
       <c r="B18" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
+      <c r="A21" s="9"/>
       <c r="B21" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
+      <c r="A22" s="9"/>
       <c r="B22" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
+      <c r="A23" s="9"/>
       <c r="C23" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
+      <c r="A24" s="11"/>
       <c r="C24" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
+      <c r="A25" s="11"/>
       <c r="C25" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="B26" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
+      <c r="A27" s="9"/>
       <c r="C27" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
+      <c r="A28" s="9"/>
       <c r="C28" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
+      <c r="A29" s="9"/>
       <c r="C29" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
+      <c r="A30" s="9"/>
       <c r="B30" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
+      <c r="A31" s="9"/>
       <c r="B31" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
+      <c r="A32" s="10"/>
       <c r="B32" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
+      <c r="A35" s="9"/>
       <c r="B35" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
+      <c r="A36" s="9"/>
       <c r="B36" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
+      <c r="A37" s="9"/>
       <c r="B37" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
+      <c r="A38" s="9"/>
       <c r="B38" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
+      <c r="A39" s="10"/>
       <c r="B39" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
+      <c r="A43" s="1"/>
       <c r="B43" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
+      <c r="A44" s="1"/>
       <c r="B44" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
+      <c r="A45" s="1"/>
       <c r="B45" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
+      <c r="A46" s="1"/>
       <c r="B46" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
+      <c r="A47" s="1"/>
       <c r="B47" t="s">
         <v>124</v>
       </c>
@@ -1822,21 +1875,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="3.875" customWidth="1"/>
-    <col min="4" max="4" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>130</v>
       </c>
@@ -1844,7 +1897,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1852,7 +1905,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1860,12 +1913,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="C4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="C5" t="s">
         <v>134</v>
       </c>
@@ -1873,7 +1926,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1881,7 +1934,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1889,7 +1942,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1897,37 +1950,37 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="B11" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="C12" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="C13" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="C14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="C15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="C16" t="s">
         <v>146</v>
       </c>
